--- a/teaching/traditional_assets/database/data/philippines/philippines_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_investments_asset_management.xlsx
@@ -590,23 +590,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.395</v>
+      </c>
       <c r="G2">
-        <v>-0.4807692307692308</v>
+        <v>-0.108843537414966</v>
       </c>
       <c r="H2">
-        <v>-0.4807692307692308</v>
+        <v>-0.108843537414966</v>
       </c>
       <c r="I2">
-        <v>-0.764423076923077</v>
+        <v>-0.2057823129251701</v>
       </c>
       <c r="J2">
-        <v>-0.5733173076923077</v>
+        <v>-0.1617364411518032</v>
       </c>
       <c r="K2">
-        <v>-2.248</v>
+        <v>1.221</v>
       </c>
       <c r="L2">
-        <v>-10.80769230769231</v>
+        <v>2.076530612244898</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,76 +627,76 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.699</v>
+        <v>5.067</v>
       </c>
       <c r="V2">
-        <v>0.01659837513246203</v>
+        <v>0.01441126279863481</v>
       </c>
       <c r="W2">
-        <v>0.0368639946335737</v>
+        <v>0.1913035381750466</v>
       </c>
       <c r="X2">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="Y2">
-        <v>-0.02121012235414729</v>
+        <v>0.1459240959487008</v>
       </c>
       <c r="Z2">
-        <v>0.004081632653061224</v>
+        <v>0.01175811870100784</v>
       </c>
       <c r="AA2">
-        <v>0.2060129726079094</v>
+        <v>0.1655087971465836</v>
       </c>
       <c r="AB2">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="AC2">
-        <v>0.1469035046266712</v>
+        <v>0.1174911671881717</v>
       </c>
       <c r="AD2">
-        <v>32.2</v>
+        <v>34.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>32.2</v>
+        <v>34.5</v>
       </c>
       <c r="AG2">
-        <v>27.501</v>
+        <v>29.433</v>
       </c>
       <c r="AH2">
-        <v>0.1021249603552173</v>
+        <v>0.08935508935508936</v>
       </c>
       <c r="AI2">
-        <v>0.5885901255780797</v>
+        <v>0.5706912808297354</v>
       </c>
       <c r="AJ2">
-        <v>0.08854124745251948</v>
+        <v>0.07724527796805002</v>
       </c>
       <c r="AK2">
-        <v>0.5499320108782595</v>
+        <v>0.531415881269635</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.043</v>
+        <v>-0.045</v>
       </c>
       <c r="AN2">
-        <v>-338.9473684210527</v>
+        <v>-453.9473684210527</v>
       </c>
       <c r="AP2">
-        <v>-289.4842105263158</v>
+        <v>-387.2763157894737</v>
       </c>
       <c r="AQ2">
-        <v>3.697674418604652</v>
+        <v>2.688888888888889</v>
       </c>
     </row>
     <row r="3">
@@ -712,6 +715,9 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.395</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -719,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3028846153846154</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J3">
-        <v>0.1514423076923077</v>
+        <v>0.1073059360730594</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.047</v>
       </c>
       <c r="L3">
-        <v>0.04807692307692308</v>
+        <v>0.07993197278911565</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -752,31 +758,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.145</v>
+        <v>0.153</v>
       </c>
       <c r="V3">
-        <v>0.0007639620653319282</v>
+        <v>0.0006139646869983949</v>
       </c>
       <c r="W3">
-        <v>0.07462686567164178</v>
+        <v>0.3133333333333334</v>
       </c>
       <c r="X3">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="Y3">
-        <v>0.01655274868392079</v>
+        <v>0.2679538911069875</v>
       </c>
       <c r="Z3">
-        <v>20.79999999999998</v>
+        <v>117.5999999999999</v>
       </c>
       <c r="AA3">
-        <v>3.149999999999997</v>
+        <v>12.61917808219177</v>
       </c>
       <c r="AB3">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="AC3">
-        <v>3.091925883012276</v>
+        <v>12.57379863996542</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -788,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.145</v>
+        <v>-0.153</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -797,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.0007645461495874087</v>
+        <v>-0.0006143418712130642</v>
       </c>
       <c r="AK3">
-        <v>-28.99999999999997</v>
+        <v>-2.833333333333333</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +832,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>-0.054</v>
+        <v>-0.063</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -850,31 +856,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.016</v>
+        <v>0.027</v>
       </c>
       <c r="V4">
-        <v>0.0005263157894736842</v>
+        <v>0.00125</v>
       </c>
       <c r="W4">
-        <v>0.4695652173913043</v>
+        <v>0.3641618497109827</v>
       </c>
       <c r="X4">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="Y4">
-        <v>0.4114911004035833</v>
+        <v>0.3187824074846369</v>
       </c>
       <c r="Z4">
         <v>-0</v>
       </c>
       <c r="AA4">
-        <v>0.4146341463414634</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AB4">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="AC4">
-        <v>0.3565600293537424</v>
+        <v>0.2879538911069875</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -886,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.016</v>
+        <v>-0.027</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.000526592943654555</v>
+        <v>-0.001251564455569462</v>
       </c>
       <c r="AK4">
-        <v>0.08465608465608465</v>
+        <v>-0.07317073170731707</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -924,7 +930,7 @@
         </is>
       </c>
       <c r="K5">
-        <v>-2.2</v>
+        <v>1.24</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -933,7 +939,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -942,61 +948,61 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.008</v>
+        <v>0.017</v>
       </c>
       <c r="V5">
-        <v>0.0002395209580838324</v>
+        <v>0.0005862068965517242</v>
       </c>
       <c r="W5">
-        <v>-0.1139896373056995</v>
+        <v>0.06927374301675979</v>
       </c>
       <c r="X5">
-        <v>0.0843083264758417</v>
+        <v>0.07542490877000968</v>
       </c>
       <c r="Y5">
-        <v>-0.1982979637815412</v>
+        <v>-0.006151165753249893</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.002608201125644697</v>
+        <v>-0.002315739040166095</v>
       </c>
       <c r="AB5">
-        <v>0.06014481897475528</v>
+        <v>0.05065581769047794</v>
       </c>
       <c r="AC5">
-        <v>-0.06275302010039997</v>
+        <v>-0.05297155673064404</v>
       </c>
       <c r="AD5">
-        <v>32.2</v>
+        <v>34.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>32.2</v>
+        <v>34.5</v>
       </c>
       <c r="AG5">
-        <v>32.192</v>
+        <v>34.483</v>
       </c>
       <c r="AH5">
-        <v>0.4908536585365855</v>
+        <v>0.5433070866141733</v>
       </c>
       <c r="AI5">
-        <v>0.6427145708582834</v>
+        <v>0.6284153005464481</v>
       </c>
       <c r="AJ5">
-        <v>0.4907915599463349</v>
+        <v>0.5431847896287195</v>
       </c>
       <c r="AK5">
-        <v>0.6426575101812665</v>
+        <v>0.6283002022484193</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1005,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>-338.9473684210527</v>
+        <v>-453.9473684210527</v>
       </c>
       <c r="AP5">
-        <v>-338.8631578947368</v>
+        <v>-453.7236842105263</v>
       </c>
     </row>
     <row r="6">
@@ -1028,7 +1034,7 @@
         </is>
       </c>
       <c r="K6">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1052,31 +1058,31 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>4.53</v>
+        <v>4.87</v>
       </c>
       <c r="V6">
-        <v>0.1535593220338983</v>
+        <v>0.09401544401544402</v>
       </c>
       <c r="W6">
-        <v>-0.0008988764044943821</v>
+        <v>-0.0006479481641468683</v>
       </c>
       <c r="X6">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="Y6">
-        <v>-0.05897299339221538</v>
+        <v>-0.04602739039049269</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>-0.2374999999999998</v>
+        <v>-0.2000000000000007</v>
       </c>
       <c r="AB6">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="AC6">
-        <v>-0.2955741169877208</v>
+        <v>-0.2453794422263465</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-4.53</v>
+        <v>-4.87</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1097,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.1814177012414898</v>
+        <v>-0.1037715746857021</v>
       </c>
       <c r="AK6">
-        <v>-45.30000000000016</v>
+        <v>-60.87499999999995</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.043</v>
+        <v>-0.045</v>
       </c>
       <c r="AQ6">
-        <v>0.8837209302325582</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
   </sheetData>
